--- a/medicine/Enfance/Davide_Cali/Davide_Cali.xlsx
+++ b/medicine/Enfance/Davide_Cali/Davide_Cali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Davide Calì, né à Liestal le 5 février 1972, est un auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 David Cali a grandi en Italie où il a commencé sa carrière en tant que dessinateur et scénariste de bande dessinée : il a collaboré avec plusieurs fanzines et a travaillé pour le mensuel italien Linus de 1994 à 2008. 
 Il a commencé à écrire des livres pour enfants en 1998. Ses premiers titres ont été publiés en Italie, en revanche, depuis 2004, la majorité de ses livres sont publiés en France, en particulier pour les Éditions Sarbacane, et ses BD jeunesse apparaissent sur le magazine Mes premiers J'aime lire (Bayard Éditions).
 En 2013, il a déjà publié plus de 60 livres, traduits dans plus de 30 pays. Sous le pseudonyme de Taro Miyazawa en 2009, il a écrit Le Premier jour de classe, illustré par Nodar (Arnaud Boutin), et sous le nom de plume de Daikon il a publié sur le blog la vie hors du Paradis la série Adam (&amp; Ève) : La vie hors du Paradis, avec les dessins de Bob (Robert Yannick), apparue dans les magazines L'écho des Savanes (2009) et Fluide Glacial (2013).
-Ses albums illustrés : L’Ennemi, Moi j’attends, L’orso con la spada et L’isola del piccolo mostro nero-nero ont été adaptés pour le théâtre pour enfants par différentes compagnies en France, en Belgique, en Italie et en Japon[1]. 
+Ses albums illustrés : L’Ennemi, Moi j’attends, L’orso con la spada et L’isola del piccolo mostro nero-nero ont été adaptés pour le théâtre pour enfants par différentes compagnies en France, en Belgique, en Italie et en Japon. 
 Depuis 2016 il est le directeur artistique de Book on a Tree, l’agence littéraire fondée par l’écrivain italien Pierdomenico Baccalario, en 2014 à Londres.
 En 2020, il a activé une série de projets de promotion de la lecture, réalisant des lectures en ligne pendant une période. Il a également fait don de plusieurs projets gratuitement à des libraires, des enseignants et des bibliothécaires, y compris les Hula-Hoop Readings et Take-Away Writers (plus tard également déclinés avec des illustrateurs et des dessinateurs).
 [réf. souhaitée]</t>
@@ -550,9 +564,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums illustrés
-Première publication en italien
-Storia di Alfonso e del suo cane Boris, illustré par l'auteur, 2000
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Première publication en italien</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Storia di Alfonso e del suo cane Boris, illustré par l'auteur, 2000
 Mi piace il cioccolato, illustré par Evelyn Daviddi, 2001
 Zaccaria cane parlante e altre storie di animali, illustré par l'auteur, 2002
 Il gatto verde, illustré par l'auteur, 2002
@@ -607,11 +629,87 @@
 E vissero felici e contenti, illustré par Naida Mazzenga, Clichy, 2022
 L’album dei ricordi dei supereroi, illustré par l'auteur, Biancoenero, 2022  
 Osso, Pelliccia e Zucca non fanno paura a nessuno, illustré par Stefano Martinuz, Nomos, 2022
-Colpa di chi?, illustré par Regina Lukk-Toompere, Kite, 2022  
-Première publication en italien (Suisse)
-La casa degli uccelli, illustré par Tiziana Romanin, Marameo Edizioni, 2019
-Première publication en français
-Un papa sur mesure, illustré par Anna Laura Cantone, 2004
+Colpa di chi?, illustré par Regina Lukk-Toompere, Kite, 2022  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Première publication en italien (Suisse)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La casa degli uccelli, illustré par Tiziana Romanin, Marameo Edizioni, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Première publication en français</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un papa sur mesure, illustré par Anna Laura Cantone, 2004
 Juste à ce moment-là, illustré par José Saraiva, 2004
 Piano Piano, illustré par Éric Heliot, 2005
 Bernard et moi, illustré par Éric Heliot, 2005
@@ -634,7 +732,7 @@
 Tendres Bêtises à faire quand on est amoureux, illustré par Robin, 2013
 Un week-end de repos absolu, illustré par Alexandra Huard, 2013
 Les Jours hibou, illustré par Vincent Mathy, 2013
-Le Grand Livre de la bagarre[2], illustré par Serge Bloch, 2013
+Le Grand Livre de la bagarre, illustré par Serge Bloch, 2013
 Elle est où la ligne, illustré par Joëlle Jolivet, Trimestre / Oskar, 2014
 Bons Baisers ratés de Venise, illustré par Isabella Mazzanti, Gulf Stream, 2014
 Le Perroquet de l'empereur - Course à travers le Japon !, illustré par Chiaki Miyamoto, Nobi-Nobi, 2014
@@ -643,7 +741,7 @@
 Il était trois fois: les trois petits cochons, illustré par Roland Garrigue, Nathan, 2015
 Bons baisers ratés de New York, illustré par Raphaëlle Barbanègre, Gulf Stream, 2015
 Chez moi, illustré par Sébastien Mourrain, Actes Sud, 2016
-Les Bacon Brothers: retour en Amérique![3], illustré par Ronan Badel, ABC Melody, 2016
+Les Bacon Brothers: retour en Amérique!, illustré par Ronan Badel, ABC Melody, 2016
 Crotte!, illustré par Christine Roussey, Nathan, 2016
 Cours!, illustré par Maurizio Quarello, Sarbacane, 2016
 Bronto-stégo-mégalo-saurus, illustré par Sebastien Mourrain, Sarbacane, 2017
@@ -661,7 +759,7 @@
 Top-car, illustré par Sébastien Mourrain, Les Éditions des Éléphants, 2018
 Bimbim est très en colère, illustré par Michiko Chapuis, Rue du Monde, 2018
 Bimbim veut qu’on lui obéisse, illustré par Michiko Chapuis, Rue du Monde, 2018
-La Chanson perdue de Lola Pearl : Hopper[2] , illustré par Ronan Badel, L'Élan vert, 2018 — Une enquête illustrée par 12 tableaux de Edward Hopper.
+La Chanson perdue de Lola Pearl : Hopper , illustré par Ronan Badel, L'Élan vert, 2018 — Une enquête illustrée par 12 tableaux de Edward Hopper.
 Les Cacacrotte: le barbecue, illustré par Laure du Fay, Amaterra, 2018
 Les Cacacrotte: le musée, illustré par Laure du Fay, Amaterra, 2018
 4998 amis, illustré par Michiko Chapuis, Rue du Monde, 2018
@@ -683,25 +781,253 @@
 Mon petit papa, illustré par Jean Jullien, Sarbacane, 2022  
 Une bibliothèque à trois roues, illustré par Sébastien Pelon, ABC Melody, 2022  
 Vampire un jour, vampire toujours, illustré par Sébastien Mourrain, Actes Sud, 2022  
-186 - Une histoire trop courte, illustré par Marianna Balducci, Tundra Books, 2022
-Première publication en français (Canada)
-Petit Pois, illustré par Sébastien Mourrain, Comme des géants, 2016
+186 - Une histoire trop courte, illustré par Marianna Balducci, Tundra Books, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Première publication en français (Canada)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Petit Pois, illustré par Sébastien Mourrain, Comme des géants, 2016
 Le grand voyage de Petit Pois, illustré par Sébastien Mourrain, Comme des Géants, 2017
-L'école de dessin de Petit Pois, illustré par Sébastien Mourrain, Comme des géants, 2021
-Première publication en français (Belgique)
-Tourmaline, illustré par Fatinha Ramos, De Eenhoorn, 2020
-Première publication en allemand
-Die Geschichte der Roten Nasen und der Roten Ohren, illustré par Aurélie Guillerey, 2007
-Omas unglaubliche Reise, illustré par Anna Laura Cantone, 2008
-Première publication en espagnol (Argentine)
-Spaghetti, illustré par l'auteur, Pequeño Editor, 2008
-Première publication en espagnol
-Poseando con Kiki, illustré par Paolo Domeniconi, Fragatina, 2018
+L'école de dessin de Petit Pois, illustré par Sébastien Mourrain, Comme des géants, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Première publication en français (Belgique)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tourmaline, illustré par Fatinha Ramos, De Eenhoorn, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Première publication en allemand</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Die Geschichte der Roten Nasen und der Roten Ohren, illustré par Aurélie Guillerey, 2007
+Omas unglaubliche Reise, illustré par Anna Laura Cantone, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Première publication en espagnol (Argentine)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Spaghetti, illustré par l'auteur, Pequeño Editor, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Première publication en espagnol</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poseando con Kiki, illustré par Paolo Domeniconi, Fragatina, 2018
 Hugo no puede dormir, illustré par Anna Aparicio Català, Nube Ocho, 2020
 ¡Abajo Leroy!, illustré par Guridi, Tres Tigres Tristes, 2021
-Superheroínas e superheroes - Manual de instrucións, illustré par Gomez, Nube Ocho, 2022  
-Première publication en anglais (USA)
-I didn't do my homeworks because, illustré par Benjamin Chaud, Chronicle Books, 2014
+Superheroínas e superheroes - Manual de instrucións, illustré par Gomez, Nube Ocho, 2022  </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Première publication en anglais (USA)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>I didn't do my homeworks because, illustré par Benjamin Chaud, Chronicle Books, 2014
 A funny thing happened on the way to school, illustré par Benjamin Chaud, Chronicle Books, 2015
 The truth about my unbelievable summer, illustré par Benjamin Chaud, Chronicle Books, 2016
 The Bacon Brothers: Back in the USA!, illustré par Ronan Badel, ABC Melody, 2016
@@ -711,25 +1037,207 @@
 I hate my cats, illustré par Anna Pirolli, Chronicle Books, 2018
 Good Morning, Neighbor, illustré par Maria Dek, Princeton Architectural Press, 2018
 Grown-ups never do that, illustré par Benjamin Chaud, Chronicle Books, 2019
-Where the World Ends, illustré par Maria Dek, Princeton Architectural Press, 2020
-Première publication en anglais (Canada)
-Snow White and the 77 dwarfs, illustrés par Raphaëlle Barbanègre, Tundra Books, 2015
+Where the World Ends, illustré par Maria Dek, Princeton Architectural Press, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Première publication en anglais (Canada)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Snow White and the 77 dwarfs, illustrés par Raphaëlle Barbanègre, Tundra Books, 2015
 Cinderella and the furry slippers, illustré par Raphaëlle Barbanègre, Tundra Books, 2017
-A great dog, illustré par Miguel Tanco, Tundra Books, 2018
-Première publication en anglais (UK)
-The Birthday Crown, illustré par Kate Slater, Royal Collection, 2016
-Première publication en portugais
-Um dia, um guarda-chuva, illustré par Valerio Vidali, 2011
+A great dog, illustré par Miguel Tanco, Tundra Books, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Première publication en anglais (UK)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Birthday Crown, illustré par Kate Slater, Royal Collection, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Première publication en portugais</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Um dia, um guarda-chuva, illustré par Valerio Vidali, 2011
 A rainha das rãs não pode molhar os pés, illustré par Marco Somà, 2012
 Arturo, photo de Ninamasina, 2012
 A casa que voou, illustré par Catarina Sobral, Bruàa, 2015
-Pergunta ao teu pai, illustré par Noemi Vola, Bruàa, 2019
-Bandes dessinées pour adultes
-Adam et Eve: le Paradis perdure, illustré par Yannick Robert, Varoum, 2014
+Pergunta ao teu pai, illustré par Noemi Vola, Bruàa, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bandes dessinées pour adultes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Adam et Eve: le Paradis perdure, illustré par Yannick Robert, Varoum, 2014
 Tutte le ossessioni di Victor, illustré par Squaz (Pasquale Todisco), Diàbolo, 2015
-Maschi da evitare, illustré par Veronica "Veci" Carratello, Hop! Edizioni, 2018
-Bandes dessinées pour enfants
-Le costume de Père Noël, illustré par Éric Heliot, 2005 (France)
+Maschi da evitare, illustré par Veronica "Veci" Carratello, Hop! Edizioni, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bandes dessinées pour enfants</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le costume de Père Noël, illustré par Éric Heliot, 2005 (France)
 Pas de crotte pour moi, illustré par David De Thuin, 2006 (France)
 Il faut sauver le sapin Marcel, illustré par Clotilde Perrin, 2008 (France)
 Jérôme et les formis rouges, illustré par Juliette Boulard, 2010 (France)
@@ -737,234 +1245,435 @@
 Super Potamo, illustré par Raphaëlle Barbanègre, 2013 (Espagne)
 London Mystery Club (tome 1): Le loup-garou de Hyde Park, ABC Mélody (France), 2016
 Les ravencroft (tome 1): chaque chose à sa place, illustré par Valentina Brancati, Kramiek (Suisse), 2018
-London Mystery Club (tome 2): a mummy on the tube, illustré par Yannick Robert, ABC Melody
-Série 10 Petits Insectes (France)
-10 petits insectes (Tome 1), illustré par Vincent Pianina, 2009
+London Mystery Club (tome 2): a mummy on the tube, illustré par Yannick Robert, ABC Melody</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bandes dessinées pour enfants</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série 10 Petits Insectes (France)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10 petits insectes (Tome 1), illustré par Vincent Pianina, 2009
 10 petits insects dans le brouillard (Tome 2), illustré par Vincent Pianina, 2011
-10 petits insectes. Retour vers le passé (Tome 3), illustré par Vincent Pianina, 2013
-Série Cruelle Joëlle (France)
-Cruelle Joëlle: la vie n'est pas si simple, Madame LaMort! (Tome 1), illustré par Ninie, 2010
+10 petits insectes. Retour vers le passé (Tome 3), illustré par Vincent Pianina, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bandes dessinées pour enfants</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Série Cruelle Joëlle (France)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cruelle Joëlle: la vie n'est pas si simple, Madame LaMort! (Tome 1), illustré par Ninie, 2010
 Cruelle Joëlle: week-end frisson au Lac Crystal! (Tome 2), illustré par Ninie, 2012
-Cruelle Joëlle: une journee d'enfer (Tome 3), illustré par Ninie, 2013
-Romans
-Première publication en français
-L'amour? C'est mathématique!, 2013
+Cruelle Joëlle: une journee d'enfer (Tome 3), illustré par Ninie, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Première publication en français</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>L'amour? C'est mathématique!, 2013
 3 tyrans + 1 bolosse = quelle vie!, Sarbacane, 2014
-Elle est où la ligne, illustré par Joelle Jolivet, Trimestre / Oskar, 2015
-Première publication en italien
-La linea che separa le cose, illustré par Alessandro Baronciani, Mondadori, 2022
-I bambini di Baltimore House, illustré par Riccardo Renzi, Pelledoca, 202
-Livres pour adultes
-Feeling bed, illustré par Virginia Mori, Hop Edizioni, 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Elle est où la ligne, illustré par Joelle Jolivet, Trimestre / Oskar, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Première publication en italien</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La linea che separa le cose, illustré par Alessandro Baronciani, Mondadori, 2022
+I bambini di Baltimore House, illustré par Riccardo Renzi, Pelledoca, 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Livres pour adultes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Feeling bed, illustré par Virginia Mori, Hop Edizioni, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>APP</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>A ciascuno il suo, sviluppatore: Paramecio Studio, Kite Edizioni, 2012
 Moi, j’attends, développé par: France Televisions Distribution SA©, Les films d'ici 2, la Station Animation, les éditions Sarbacane, 2013</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Multimedia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Pandaroux, Lunii, 2019
 Les jours hibou, illustré par Vincent Mathy, Piboco, 2019</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Jeux de société</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Crossroads, avec Elisabetta Maria Zocca, Ludic, 2022</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Pour aimer son tigre, A2Mimo, 2019</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Adaptations théâtrales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Moi, j’attends, Compagnie O'Navio Théâtre, 2010 (Limoges, France)
 L’ennemi, Compagnie Art tout Chaud, 2010 (Amiens, France)
-L’ennemi[4], MicMac Théâtre, 2010 (Belgique)
-Pouce! (par L'Ennemi)[5], Compagnie Marche ou rêve, 2010 (Toulouse, France)
+L’ennemi, MicMac Théâtre, 2010 (Belgique)
+Pouce! (par L'Ennemi), Compagnie Marche ou rêve, 2010 (Toulouse, France)
 Mon Père le grand pirate, Compagnie Marche ou rêve, 2014 (Toulouse, France)
 Duplex, (par Le double + Elle est où la ligne?), Compagnie Théâtre de l’Éclaircie, 2019 (Dijon France)
-Marlène Baleine[6], Théâtre musical pour enfants sur des pièces musicales de la Renaissance, Opéra national du Rhin, 2019 (Strasbourg, Colmar, Mulhouse)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Davide_Cali</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+Marlène Baleine, Théâtre musical pour enfants sur des pièces musicales de la Renaissance, Opéra national du Rhin, 2019 (Strasbourg, Colmar, Mulhouse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Davide_Cali</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Davide_Cali</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Eurochocolate Award, Italie, 2001 [7].
-Prix Libbylit, best album Moi, j’attends, Salon du Livre de Jeunesse de Namur, Belgium, 2005 [8]
-Prix Baobab, best album Moi, j’attends, Salon du livre de Jeunesse de Montreuil, France, 2005 [9]
-Premio Words and Music, Menzione speciale per Piano piano, Fiera di Bologna, Italie, 2006[10]
-Crescere con i libri, Premio città di Torino per Un papà su misura, Torino, 2006[11]
-Prix Suisse Enfantaisies, Piano piano, Losanna, Switzerland, 2006[12]
-Prix SNCF, Moi, j’attends, Festival du livre de jeunesse de Rouen, France, 2006[13]
-Selezione White Ravens, Voglio una mamma robot, Germany, 2008[14]
-Selezione White Ravens, L’orso con la spada, Germany, 2009[14]
-Selezione CJ Pictur Book Awards, L’orso con la spada, Korea, 2009[14]
-Prix Bernard Versele, L’Ennemi, Brussels, Belgium, 2009[15]
-Chinatimes, Best Album for Kids, L’Ennemi, Taiwan, 2009[15]
-Selection Notable Social Studies Trade Books for Young People, The Enemy, USA, 2010[16]
-Selection White Ravens, Marlène Baleine, Germany, 2011[14]
-Primer Libro Kirico, Malena Ballena, Spain, 2011[17]
-Prix littéraire du cycle 2 de la médiathèque de Bagneux, Marlène Baleine, France, 2011[18]
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Eurochocolate Award, Italie, 2001 .
+Prix Libbylit, best album Moi, j’attends, Salon du Livre de Jeunesse de Namur, Belgium, 2005 
+Prix Baobab, best album Moi, j’attends, Salon du livre de Jeunesse de Montreuil, France, 2005 
+Premio Words and Music, Menzione speciale per Piano piano, Fiera di Bologna, Italie, 2006
+Crescere con i libri, Premio città di Torino per Un papà su misura, Torino, 2006
+Prix Suisse Enfantaisies, Piano piano, Losanna, Switzerland, 2006
+Prix SNCF, Moi, j’attends, Festival du livre de jeunesse de Rouen, France, 2006
+Selezione White Ravens, Voglio una mamma robot, Germany, 2008
+Selezione White Ravens, L’orso con la spada, Germany, 2009
+Selezione CJ Pictur Book Awards, L’orso con la spada, Korea, 2009
+Prix Bernard Versele, L’Ennemi, Brussels, Belgium, 2009
+Chinatimes, Best Album for Kids, L’Ennemi, Taiwan, 2009
+Selection Notable Social Studies Trade Books for Young People, The Enemy, USA, 2010
+Selection White Ravens, Marlène Baleine, Germany, 2011
+Primer Libro Kirico, Malena Ballena, Spain, 2011
+Prix littéraire du cycle 2 de la médiathèque de Bagneux, Marlène Baleine, France, 2011
 Prix des Bulles de Haute des Garonne, 10 Petits Insectes, France, 2011
-Prix littéraire de Plessis Robinson, L’Ennemi, France, 2011[15]
-Prix Tam Tam, 10 Petits Insectes, La Courneuve, France, 2011[19]
+Prix littéraire de Plessis Robinson, L’Ennemi, France, 2011
+Prix Tam Tam, 10 Petits Insectes, La Courneuve, France, 2011
 Prix Tatoulu, Marlène Baleine, France, 2011
-Prix des Incorruptibles, Marlène Baleine, France, 2011[20]
-Selection CJ Pictur Book Awards, Um dia un guarda-chuva, Korea, 2011[14]
+Prix des Incorruptibles, Marlène Baleine, France, 2011
+Selection CJ Pictur Book Awards, Um dia un guarda-chuva, Korea, 2011
 Prix DLire Canalblog, Cruelle Joëlle, France, 2011
 Prix Bulles en Haute Garonne, Jerôme et les Fourmis rouges, 2012
 Prix de la bande dessinée jeunesse de Montreuil-Bellay, Cruelle Joëlle, France, 2012
@@ -981,7 +1690,7 @@
 Prix de la foire de Wroclaw, L’Ennemi, Pologne, 2015
 Premio Boscarato, Miglior Sceneggiatura, Tutte le ossessioni di Victor, Italie, 2015
 Premio Laura Orvieto, Mio padre, il grande pirata, Italie, 2015
-Prix Bernard Versele pour  L’amour? C’est mathématique![21], Belgique, 2015
+Prix Bernard Versele pour  L’amour? C’est mathématique!, Belgique, 2015
 Prix Soligatto, Sono arrivato in ritardo a scuola perché, Italie, 2016
 Festival du livre Jeunesse de Annemasse Award, Juniors Readers Selection, L'amour c’est mathématique!, France, 2016
 Prix Michel Tournier Jeunesse (Catégorie Cadet), Les Bacon Brothers, France, 2018
@@ -996,13 +1705,13 @@
 Premio Legambiente, Tre in tutto, Italie, 2019
 Prix Danielle Grondein (Prix Spécial du jury), Journées du livre jeunesse de la ville Les Pennes-Mirabeau, La chanson perdue de Lola Pearl, France, 2019
 Prix Enfantaisie, Poussin, Suisse, 2020
-Premio Torre del Agua, Il venditore di Felicità, Espagne, 2021 [22]
-Premio Kimi Siegel, Il venditore di Felicità, Germany, 2021[23]
-Finaliste Prix des libraires du Québec - catégorie Hors Québec - Jeunesse, M. Tigre le magnifique, avec Miguel Tanco, 2022[24]
-Sélection Prix Sorcières - Catégorie Carrément sorcières fiction, Le Cauchemar du Thylacine, avec Claudia Palmarucci, 2022[25]
-Premio Luigi Malerba, Quando sarò grande, Italia, 2022[26]
-Prix Bernard Versele, Les adultes ne font jamais ça, illustrations de Benjamin Chaud, Belgio, 2022[27]
-Best Illustrated Children Book, The writer, USA, 2022[28]</t>
+Premio Torre del Agua, Il venditore di Felicità, Espagne, 2021 
+Premio Kimi Siegel, Il venditore di Felicità, Germany, 2021
+Finaliste Prix des libraires du Québec - catégorie Hors Québec - Jeunesse, M. Tigre le magnifique, avec Miguel Tanco, 2022
+Sélection Prix Sorcières - Catégorie Carrément sorcières fiction, Le Cauchemar du Thylacine, avec Claudia Palmarucci, 2022
+Premio Luigi Malerba, Quando sarò grande, Italia, 2022
+Prix Bernard Versele, Les adultes ne font jamais ça, illustrations de Benjamin Chaud, Belgio, 2022
+Best Illustrated Children Book, The writer, USA, 2022</t>
         </is>
       </c>
     </row>
